--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - PALLAVI MERUT</t>
-  </si>
-  <si>
-    <t>CM</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,27 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44692</v>
-      </c>
-      <c r="B5" s="8">
-        <v>37114</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8">
-        <v>552</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>21</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>37114</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1659,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>36562</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PALLAVI SPORTS.xlsx
+++ b/IMPORTANT/PALLAVI SPORTS.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
